--- a/posesiones/1381301.xlsx
+++ b/posesiones/1381301.xlsx
@@ -1901,10 +1901,10 @@
         <v>1</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2045,7 +2045,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2095,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -2148,7 +2148,7 @@
         <v>1</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R8">
         <v>17</v>
@@ -2201,7 +2201,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2251,7 +2251,7 @@
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>6</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -2448,7 +2448,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>27</v>
@@ -2501,7 +2501,7 @@
         <v>1</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R15">
         <v>17</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -2601,7 +2601,7 @@
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R17">
         <v>13</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -2701,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R19">
         <v>23</v>
@@ -2751,7 +2751,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:18">
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R21">
         <v>28</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -2951,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:18">
@@ -3001,7 +3001,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R25">
         <v>18</v>
@@ -3054,7 +3054,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:18">
@@ -3104,7 +3104,7 @@
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R27">
         <v>5</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:18">
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="R29">
         <v>19</v>
@@ -3257,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:18">
@@ -3304,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18">
@@ -3398,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -3448,7 +3448,7 @@
         <v>1</v>
       </c>
       <c r="Q34">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R34">
         <v>11</v>
@@ -3501,7 +3501,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -3548,7 +3548,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -3595,7 +3595,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -3645,7 +3645,7 @@
         <v>1</v>
       </c>
       <c r="Q38">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R38">
         <v>14</v>
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -3745,7 +3745,7 @@
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="R40">
         <v>11</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3845,7 +3845,7 @@
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R42">
         <v>14</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
       <c r="Q44">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R44">
         <v>19</v>
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4089,7 +4089,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4139,7 +4139,7 @@
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R48">
         <v>5</v>
@@ -4192,7 +4192,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="R49">
         <v>25</v>
@@ -4245,7 +4245,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -4292,7 +4292,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -4342,7 +4342,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:18">
@@ -4392,7 +4392,7 @@
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R53">
         <v>16</v>
@@ -4442,7 +4442,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="55" spans="1:18">
@@ -4489,7 +4489,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="56" spans="1:18">
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="57" spans="1:18">
@@ -4583,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:18">
@@ -4680,7 +4680,7 @@
         <v>1</v>
       </c>
       <c r="Q59">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="R59">
         <v>10</v>
@@ -4733,7 +4733,7 @@
         <v>1</v>
       </c>
       <c r="Q60">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="R60">
         <v>8</v>
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4830,7 +4830,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:18">
@@ -4877,7 +4877,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="64" spans="1:18">
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R64">
         <v>10</v>
@@ -4980,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="Q65">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R65">
         <v>1</v>
@@ -5030,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:18">
@@ -5080,7 +5080,7 @@
         <v>1</v>
       </c>
       <c r="Q67">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="R67">
         <v>5</v>
@@ -5130,7 +5130,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -5180,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="R69">
         <v>21</v>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:18">
@@ -5277,7 +5277,7 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:18">
@@ -5327,7 +5327,7 @@
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R72">
         <v>0</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:18">
@@ -5427,7 +5427,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:18">
@@ -5477,7 +5477,7 @@
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="R75">
         <v>24</v>
@@ -5527,7 +5527,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="77" spans="1:18">
@@ -5577,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:18">
@@ -5627,7 +5627,7 @@
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R78">
         <v>22</v>
@@ -5680,7 +5680,7 @@
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R79">
         <v>9</v>
@@ -5730,7 +5730,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="81" spans="1:18">
@@ -5780,7 +5780,7 @@
         <v>1</v>
       </c>
       <c r="Q81">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="R81">
         <v>20</v>
@@ -5830,7 +5830,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" spans="1:18">
@@ -5877,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84" spans="1:18">
@@ -5927,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="Q84">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R84">
         <v>18</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="86" spans="1:18">
@@ -6030,7 +6030,7 @@
         <v>1</v>
       </c>
       <c r="Q86">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R86">
         <v>14</v>
@@ -6080,7 +6080,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:18">
@@ -6130,7 +6130,7 @@
         <v>1</v>
       </c>
       <c r="Q88">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R88">
         <v>11</v>
@@ -6180,7 +6180,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="90" spans="1:18">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="Q90">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="R90">
         <v>13</v>
@@ -6280,7 +6280,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:18">
@@ -6330,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="Q92">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="R92">
         <v>17</v>
@@ -6383,7 +6383,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:18">
@@ -6433,7 +6433,7 @@
         <v>1</v>
       </c>
       <c r="Q94">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R94">
         <v>7</v>
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6530,7 +6530,7 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="97" spans="1:18">
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="98" spans="1:18">
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="99" spans="1:18">
@@ -6674,7 +6674,7 @@
         <v>1</v>
       </c>
       <c r="Q99">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R99">
         <v>23</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:18">
@@ -6771,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="102" spans="1:18">
@@ -6818,7 +6818,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:18">
@@ -6865,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="104" spans="1:18">
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="1:18">
@@ -6962,7 +6962,7 @@
         <v>1</v>
       </c>
       <c r="Q105">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R105">
         <v>16</v>
@@ -7015,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="107" spans="1:18">
@@ -7065,7 +7065,7 @@
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="R107">
         <v>7</v>
@@ -7115,7 +7115,7 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="109" spans="1:18">
@@ -7165,7 +7165,7 @@
         <v>1</v>
       </c>
       <c r="Q109">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="R109">
         <v>4</v>
@@ -7218,7 +7218,7 @@
         <v>1</v>
       </c>
       <c r="Q110">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="R110">
         <v>14</v>
@@ -7268,7 +7268,7 @@
         <v>0</v>
       </c>
       <c r="Q111">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:18">
@@ -7315,7 +7315,7 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:18">
@@ -7362,7 +7362,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:18">
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:18">
@@ -7456,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:18">
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="Q116">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:18">
@@ -7550,7 +7550,7 @@
         <v>0</v>
       </c>
       <c r="Q117">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:18">
@@ -7597,7 +7597,7 @@
         <v>0</v>
       </c>
       <c r="Q118">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:18">
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="120" spans="1:18">
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R120">
         <v>18</v>
@@ -7744,7 +7744,7 @@
         <v>0</v>
       </c>
       <c r="Q121">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:18">
@@ -7794,7 +7794,7 @@
         <v>1</v>
       </c>
       <c r="Q122">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R122">
         <v>8</v>
@@ -7838,10 +7838,10 @@
         <v>1</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="124" spans="1:18">
@@ -7882,10 +7882,10 @@
         <v>1</v>
       </c>
       <c r="P124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q124">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="125" spans="1:18">
@@ -7935,7 +7935,7 @@
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="R125">
         <v>17</v>
@@ -7988,7 +7988,7 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="127" spans="1:18">
@@ -8038,7 +8038,7 @@
         <v>1</v>
       </c>
       <c r="Q127">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="R127">
         <v>18</v>
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="Q128">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="129" spans="1:18">
@@ -8138,7 +8138,7 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="R129">
         <v>10</v>
@@ -8191,7 +8191,7 @@
         <v>1</v>
       </c>
       <c r="Q130">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="R130">
         <v>22</v>
@@ -8244,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="Q131">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="132" spans="1:18">
@@ -8294,7 +8294,7 @@
         <v>1</v>
       </c>
       <c r="Q132">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="R132">
         <v>10</v>
@@ -8344,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="Q133">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:18">
@@ -8394,7 +8394,7 @@
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="R134">
         <v>18</v>
@@ -8444,7 +8444,7 @@
         <v>0</v>
       </c>
       <c r="Q135">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="136" spans="1:18">
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="Q136">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="137" spans="1:18">
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="Q137">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="138" spans="1:18">
@@ -8588,7 +8588,7 @@
         <v>1</v>
       </c>
       <c r="Q138">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R138">
         <v>0</v>
@@ -8641,7 +8641,7 @@
         <v>0</v>
       </c>
       <c r="Q139">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="140" spans="1:18">
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="Q140">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="141" spans="1:18">
@@ -8738,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="Q141">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142" spans="1:18">
@@ -8788,7 +8788,7 @@
         <v>1</v>
       </c>
       <c r="Q142">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="R142">
         <v>12</v>
@@ -8841,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="Q143">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="R143">
         <v>13</v>
@@ -8894,7 +8894,7 @@
         <v>0</v>
       </c>
       <c r="Q144">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="145" spans="1:18">
@@ -8944,7 +8944,7 @@
         <v>1</v>
       </c>
       <c r="Q145">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="R145">
         <v>8</v>
@@ -8991,7 +8991,7 @@
         <v>0</v>
       </c>
       <c r="Q146">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="147" spans="1:18">
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="Q147">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="148" spans="1:18">
@@ -9085,7 +9085,7 @@
         <v>0</v>
       </c>
       <c r="Q148">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="1:18">
@@ -9135,7 +9135,7 @@
         <v>1</v>
       </c>
       <c r="Q149">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="R149">
         <v>15</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="Q150">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="151" spans="1:18">
@@ -9235,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="Q151">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="R151">
         <v>19</v>
@@ -9288,7 +9288,7 @@
         <v>0</v>
       </c>
       <c r="Q152">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="153" spans="1:18">
@@ -9338,7 +9338,7 @@
         <v>1</v>
       </c>
       <c r="Q153">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R153">
         <v>13</v>
@@ -9391,7 +9391,7 @@
         <v>0</v>
       </c>
       <c r="Q154">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="155" spans="1:18">
@@ -9441,7 +9441,7 @@
         <v>1</v>
       </c>
       <c r="Q155">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R155">
         <v>8</v>
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="Q156">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="157" spans="1:18">
@@ -9544,7 +9544,7 @@
         <v>1</v>
       </c>
       <c r="Q157">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="R157">
         <v>11</v>
@@ -9594,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="Q158">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="159" spans="1:18">
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="Q159">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="160" spans="1:18">
@@ -9688,7 +9688,7 @@
         <v>0</v>
       </c>
       <c r="Q160">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="161" spans="1:18">
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q161">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="162" spans="1:18">
@@ -9785,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="Q162">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="R162">
         <v>12</v>
@@ -9835,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="Q163">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="164" spans="1:18">
@@ -9882,7 +9882,7 @@
         <v>0</v>
       </c>
       <c r="Q164">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="165" spans="1:18">
@@ -9929,7 +9929,7 @@
         <v>0</v>
       </c>
       <c r="Q165">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="166" spans="1:18">
@@ -9976,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="Q166">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="167" spans="1:18">
@@ -10023,7 +10023,7 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="168" spans="1:18">
@@ -10070,7 +10070,7 @@
         <v>0</v>
       </c>
       <c r="Q168">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="169" spans="1:18">
@@ -10117,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="Q169">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="170" spans="1:18">
@@ -10167,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="Q170">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="R170">
         <v>28</v>
@@ -10217,7 +10217,7 @@
         <v>0</v>
       </c>
       <c r="Q171">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="172" spans="1:18">
@@ -10267,7 +10267,7 @@
         <v>1</v>
       </c>
       <c r="Q172">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="R172">
         <v>14</v>
@@ -10320,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="Q173">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="174" spans="1:18">
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="Q174">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="R174">
         <v>7</v>
@@ -10420,7 +10420,7 @@
         <v>0</v>
       </c>
       <c r="Q175">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="176" spans="1:18">
@@ -10470,7 +10470,7 @@
         <v>1</v>
       </c>
       <c r="Q176">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R176">
         <v>22</v>
@@ -10520,7 +10520,7 @@
         <v>0</v>
       </c>
       <c r="Q177">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="178" spans="1:18">
@@ -10570,7 +10570,7 @@
         <v>0</v>
       </c>
       <c r="Q178">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" spans="1:18">
@@ -10620,7 +10620,7 @@
         <v>1</v>
       </c>
       <c r="Q179">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="R179">
         <v>29</v>
@@ -10670,7 +10670,7 @@
         <v>0</v>
       </c>
       <c r="Q180">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="181" spans="1:18">
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="Q181">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="182" spans="1:18">
@@ -10764,7 +10764,7 @@
         <v>0</v>
       </c>
       <c r="Q182">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="183" spans="1:18">
@@ -10811,7 +10811,7 @@
         <v>0</v>
       </c>
       <c r="Q183">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="184" spans="1:18">
@@ -10858,7 +10858,7 @@
         <v>0</v>
       </c>
       <c r="Q184">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="185" spans="1:18">
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="Q185">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="186" spans="1:18">
@@ -10952,7 +10952,7 @@
         <v>1</v>
       </c>
       <c r="Q186">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="R186">
         <v>0</v>
@@ -11005,7 +11005,7 @@
         <v>1</v>
       </c>
       <c r="Q187">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R187">
         <v>19</v>
@@ -11058,7 +11058,7 @@
         <v>0</v>
       </c>
       <c r="Q188">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="189" spans="1:18">
@@ -11108,7 +11108,7 @@
         <v>1</v>
       </c>
       <c r="Q189">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="R189">
         <v>4</v>
@@ -11158,7 +11158,7 @@
         <v>0</v>
       </c>
       <c r="Q190">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" spans="1:18">
@@ -11208,7 +11208,7 @@
         <v>1</v>
       </c>
       <c r="Q191">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="R191">
         <v>14</v>
@@ -11261,7 +11261,7 @@
         <v>0</v>
       </c>
       <c r="Q192">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="193" spans="1:18">
@@ -11311,7 +11311,7 @@
         <v>1</v>
       </c>
       <c r="Q193">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="R193">
         <v>12</v>
@@ -11361,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="Q194">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="195" spans="1:18">
@@ -11411,7 +11411,7 @@
         <v>1</v>
       </c>
       <c r="Q195">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="R195">
         <v>7</v>
@@ -11461,7 +11461,7 @@
         <v>0</v>
       </c>
       <c r="Q196">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="197" spans="1:18">
@@ -11511,7 +11511,7 @@
         <v>1</v>
       </c>
       <c r="Q197">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="R197">
         <v>16</v>
@@ -11561,7 +11561,7 @@
         <v>0</v>
       </c>
       <c r="Q198">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="199" spans="1:18">
@@ -11611,7 +11611,7 @@
         <v>1</v>
       </c>
       <c r="Q199">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="R199">
         <v>5</v>
@@ -11664,7 +11664,7 @@
         <v>1</v>
       </c>
       <c r="Q200">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="R200">
         <v>19</v>
@@ -11717,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="Q201">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="202" spans="1:18">
@@ -11764,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="Q202">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="203" spans="1:18">
@@ -11811,7 +11811,7 @@
         <v>0</v>
       </c>
       <c r="Q203">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="204" spans="1:18">
@@ -11858,7 +11858,7 @@
         <v>0</v>
       </c>
       <c r="Q204">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="205" spans="1:18">
@@ -11905,7 +11905,7 @@
         <v>0</v>
       </c>
       <c r="Q205">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="206" spans="1:18">
@@ -11952,7 +11952,7 @@
         <v>0</v>
       </c>
       <c r="Q206">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:18">
@@ -11999,7 +11999,7 @@
         <v>0</v>
       </c>
       <c r="Q207">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="208" spans="1:18">
@@ -12049,7 +12049,7 @@
         <v>1</v>
       </c>
       <c r="Q208">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R208">
         <v>14</v>
@@ -12102,7 +12102,7 @@
         <v>0</v>
       </c>
       <c r="Q209">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="210" spans="1:18">
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="Q210">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R210">
         <v>20</v>
@@ -12202,7 +12202,7 @@
         <v>0</v>
       </c>
       <c r="Q211">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:18">
@@ -12249,7 +12249,7 @@
         <v>0</v>
       </c>
       <c r="Q212">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="213" spans="1:18">
@@ -12296,7 +12296,7 @@
         <v>0</v>
       </c>
       <c r="Q213">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="214" spans="1:18">
@@ -12346,7 +12346,7 @@
         <v>1</v>
       </c>
       <c r="Q214">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R214">
         <v>0</v>
@@ -12396,7 +12396,7 @@
         <v>0</v>
       </c>
       <c r="Q215">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="216" spans="1:18">
@@ -12443,7 +12443,7 @@
         <v>0</v>
       </c>
       <c r="Q216">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="217" spans="1:18">
@@ -12490,7 +12490,7 @@
         <v>0</v>
       </c>
       <c r="Q217">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="218" spans="1:18">
@@ -12540,7 +12540,7 @@
         <v>0</v>
       </c>
       <c r="Q218">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="219" spans="1:18">
@@ -12590,7 +12590,7 @@
         <v>1</v>
       </c>
       <c r="Q219">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="R219">
         <v>20</v>
@@ -12643,7 +12643,7 @@
         <v>1</v>
       </c>
       <c r="Q220">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="R220">
         <v>22</v>
@@ -12693,7 +12693,7 @@
         <v>0</v>
       </c>
       <c r="Q221">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="222" spans="1:18">
@@ -12743,7 +12743,7 @@
         <v>1</v>
       </c>
       <c r="Q222">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R222">
         <v>13</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="Q223">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="224" spans="1:18">
@@ -12840,7 +12840,7 @@
         <v>0</v>
       </c>
       <c r="Q224">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="225" spans="1:18">
@@ -12887,7 +12887,7 @@
         <v>0</v>
       </c>
       <c r="Q225">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="226" spans="1:18">
@@ -12934,7 +12934,7 @@
         <v>0</v>
       </c>
       <c r="Q226">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="227" spans="1:18">
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="228" spans="1:18">
@@ -13028,7 +13028,7 @@
         <v>0</v>
       </c>
       <c r="Q228">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="229" spans="1:18">
@@ -13078,7 +13078,7 @@
         <v>1</v>
       </c>
       <c r="Q229">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="R229">
         <v>22</v>
@@ -13128,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="Q230">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="231" spans="1:18">
@@ -13175,7 +13175,7 @@
         <v>0</v>
       </c>
       <c r="Q231">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:18">
@@ -13222,7 +13222,7 @@
         <v>0</v>
       </c>
       <c r="Q232">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="233" spans="1:18">
@@ -13272,7 +13272,7 @@
         <v>1</v>
       </c>
       <c r="Q233">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="R233">
         <v>11</v>
@@ -13325,7 +13325,7 @@
         <v>1</v>
       </c>
       <c r="Q234">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="R234">
         <v>11</v>
@@ -13378,7 +13378,7 @@
         <v>1</v>
       </c>
       <c r="Q235">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="R235">
         <v>17</v>
@@ -13428,7 +13428,7 @@
         <v>0</v>
       </c>
       <c r="Q236">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="237" spans="1:18">
@@ -13478,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="Q237">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="238" spans="1:18">
@@ -13525,7 +13525,7 @@
         <v>0</v>
       </c>
       <c r="Q238">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="239" spans="1:18">
@@ -13569,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="Q239">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="240" spans="1:18">
@@ -13616,7 +13616,7 @@
         <v>0</v>
       </c>
       <c r="Q240">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="241" spans="1:18">
@@ -13663,7 +13663,7 @@
         <v>0</v>
       </c>
       <c r="Q241">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="242" spans="1:18">
@@ -13713,7 +13713,7 @@
         <v>1</v>
       </c>
       <c r="Q242">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R242">
         <v>13</v>
@@ -13763,7 +13763,7 @@
         <v>0</v>
       </c>
       <c r="Q243">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="244" spans="1:18">
@@ -13807,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="Q244">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="245" spans="1:18">
@@ -13854,7 +13854,7 @@
         <v>0</v>
       </c>
       <c r="Q245">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="246" spans="1:18">
@@ -13901,7 +13901,7 @@
         <v>0</v>
       </c>
       <c r="Q246">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="247" spans="1:18">
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="Q247">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="248" spans="1:18">
@@ -13995,7 +13995,7 @@
         <v>0</v>
       </c>
       <c r="Q248">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="249" spans="1:18">
@@ -14042,7 +14042,7 @@
         <v>0</v>
       </c>
       <c r="Q249">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="250" spans="1:18">
@@ -14089,7 +14089,7 @@
         <v>0</v>
       </c>
       <c r="Q250">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="251" spans="1:18">
@@ -14139,7 +14139,7 @@
         <v>1</v>
       </c>
       <c r="Q251">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="R251">
         <v>33</v>
@@ -14189,7 +14189,7 @@
         <v>0</v>
       </c>
       <c r="Q252">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="253" spans="1:18">
@@ -14236,7 +14236,7 @@
         <v>0</v>
       </c>
       <c r="Q253">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="254" spans="1:18">
@@ -14283,7 +14283,7 @@
         <v>0</v>
       </c>
       <c r="Q254">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="255" spans="1:18">
@@ -14330,7 +14330,7 @@
         <v>0</v>
       </c>
       <c r="Q255">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="256" spans="1:18">
@@ -14377,7 +14377,7 @@
         <v>0</v>
       </c>
       <c r="Q256">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="257" spans="1:18">
@@ -14424,7 +14424,7 @@
         <v>0</v>
       </c>
       <c r="Q257">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="258" spans="1:18">
@@ -14471,7 +14471,7 @@
         <v>0</v>
       </c>
       <c r="Q258">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="259" spans="1:18">
@@ -14521,7 +14521,7 @@
         <v>0</v>
       </c>
       <c r="Q259">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="260" spans="1:18">
@@ -14571,7 +14571,7 @@
         <v>1</v>
       </c>
       <c r="Q260">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="R260">
         <v>-37</v>
@@ -14615,10 +14615,10 @@
         <v>1</v>
       </c>
       <c r="P261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q261">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="262" spans="1:18">
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="Q262">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="263" spans="1:18">
@@ -14712,7 +14712,7 @@
         <v>0</v>
       </c>
       <c r="Q263">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="264" spans="1:18">
@@ -14759,7 +14759,7 @@
         <v>0</v>
       </c>
       <c r="Q264">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="265" spans="1:18">
@@ -14806,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="Q265">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="266" spans="1:18">
@@ -14847,10 +14847,10 @@
         <v>1</v>
       </c>
       <c r="P266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q266">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="267" spans="1:18">
@@ -14897,7 +14897,7 @@
         <v>0</v>
       </c>
       <c r="Q267">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="268" spans="1:18">
@@ -14944,7 +14944,7 @@
         <v>0</v>
       </c>
       <c r="Q268">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="269" spans="1:18">
@@ -14991,7 +14991,7 @@
         <v>0</v>
       </c>
       <c r="Q269">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="270" spans="1:18">
@@ -15041,7 +15041,7 @@
         <v>1</v>
       </c>
       <c r="Q270">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="R270">
         <v>21</v>
@@ -15094,7 +15094,7 @@
         <v>0</v>
       </c>
       <c r="Q271">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="272" spans="1:18">
@@ -15141,7 +15141,7 @@
         <v>0</v>
       </c>
       <c r="Q272">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="273" spans="1:18">
@@ -15188,7 +15188,7 @@
         <v>0</v>
       </c>
       <c r="Q273">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="274" spans="1:18">
@@ -15235,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="Q274">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="275" spans="1:18">
@@ -15282,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="Q275">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="276" spans="1:18">
@@ -15332,7 +15332,7 @@
         <v>1</v>
       </c>
       <c r="Q276">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="R276">
         <v>15</v>
@@ -15385,7 +15385,7 @@
         <v>1</v>
       </c>
       <c r="Q277">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="R277">
         <v>13</v>
@@ -15435,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="Q278">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:18">
@@ -15485,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="Q279">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="R279">
         <v>13</v>
@@ -15538,7 +15538,7 @@
         <v>1</v>
       </c>
       <c r="Q280">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="R280">
         <v>17</v>
@@ -15588,7 +15588,7 @@
         <v>0</v>
       </c>
       <c r="Q281">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="282" spans="1:18">
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
       <c r="Q282">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="283" spans="1:18">
@@ -15688,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="Q283">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="R283">
         <v>8</v>
@@ -15741,7 +15741,7 @@
         <v>0</v>
       </c>
       <c r="Q284">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="285" spans="1:18">
@@ -15788,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="Q285">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="286" spans="1:18">
@@ -15838,7 +15838,7 @@
         <v>0</v>
       </c>
       <c r="Q286">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="287" spans="1:18">
@@ -15888,7 +15888,7 @@
         <v>1</v>
       </c>
       <c r="Q287">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="R287">
         <v>15</v>
@@ -15941,7 +15941,7 @@
         <v>1</v>
       </c>
       <c r="Q288">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="R288">
         <v>20</v>
@@ -15991,7 +15991,7 @@
         <v>0</v>
       </c>
       <c r="Q289">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="290" spans="1:18">
@@ -16041,7 +16041,7 @@
         <v>1</v>
       </c>
       <c r="Q290">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="R290">
         <v>19</v>
@@ -16094,7 +16094,7 @@
         <v>1</v>
       </c>
       <c r="Q291">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="R291">
         <v>15</v>
@@ -16144,7 +16144,7 @@
         <v>0</v>
       </c>
       <c r="Q292">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="293" spans="1:18">
@@ -16194,7 +16194,7 @@
         <v>1</v>
       </c>
       <c r="Q293">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="R293">
         <v>6</v>
@@ -16247,7 +16247,7 @@
         <v>1</v>
       </c>
       <c r="Q294">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="R294">
         <v>16</v>
@@ -16300,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="Q295">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="296" spans="1:18">
@@ -16350,7 +16350,7 @@
         <v>1</v>
       </c>
       <c r="Q296">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="R296">
         <v>19</v>
@@ -16400,7 +16400,7 @@
         <v>0</v>
       </c>
       <c r="Q297">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="298" spans="1:18">
@@ -16447,7 +16447,7 @@
         <v>0</v>
       </c>
       <c r="Q298">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="299" spans="1:18">
@@ -16491,7 +16491,7 @@
         <v>0</v>
       </c>
       <c r="Q299">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="300" spans="1:18">
@@ -16538,7 +16538,7 @@
         <v>0</v>
       </c>
       <c r="Q300">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="301" spans="1:18">
@@ -16585,7 +16585,7 @@
         <v>0</v>
       </c>
       <c r="Q301">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="302" spans="1:18">
@@ -16635,7 +16635,7 @@
         <v>1</v>
       </c>
       <c r="Q302">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R302">
         <v>0</v>
@@ -16688,7 +16688,7 @@
         <v>1</v>
       </c>
       <c r="Q303">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="R303">
         <v>18</v>
@@ -16741,7 +16741,7 @@
         <v>0</v>
       </c>
       <c r="Q304">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="305" spans="1:18">
@@ -16791,7 +16791,7 @@
         <v>1</v>
       </c>
       <c r="Q305">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="R305">
         <v>22</v>
@@ -16841,7 +16841,7 @@
         <v>0</v>
       </c>
       <c r="Q306">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="307" spans="1:18">
@@ -16891,7 +16891,7 @@
         <v>1</v>
       </c>
       <c r="Q307">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="R307">
         <v>22</v>
@@ -16941,7 +16941,7 @@
         <v>0</v>
       </c>
       <c r="Q308">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="309" spans="1:18">
@@ -16991,7 +16991,7 @@
         <v>0</v>
       </c>
       <c r="Q309">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="310" spans="1:18">
@@ -17041,7 +17041,7 @@
         <v>1</v>
       </c>
       <c r="Q310">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="R310">
         <v>30</v>
@@ -17094,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="Q311">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="R311">
         <v>12</v>
@@ -17144,7 +17144,7 @@
         <v>0</v>
       </c>
       <c r="Q312">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="313" spans="1:18">
@@ -17194,7 +17194,7 @@
         <v>1</v>
       </c>
       <c r="Q313">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="R313">
         <v>22</v>
@@ -17247,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="Q314">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="315" spans="1:18">
@@ -17297,7 +17297,7 @@
         <v>1</v>
       </c>
       <c r="Q315">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="R315">
         <v>8</v>
@@ -17350,7 +17350,7 @@
         <v>1</v>
       </c>
       <c r="Q316">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="R316">
         <v>17</v>
@@ -17403,7 +17403,7 @@
         <v>1</v>
       </c>
       <c r="Q317">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="R317">
         <v>15</v>
@@ -17456,7 +17456,7 @@
         <v>1</v>
       </c>
       <c r="Q318">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="R318">
         <v>17</v>
@@ -17509,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="Q319">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="320" spans="1:18">
@@ -17556,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="Q320">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="321" spans="1:18">
@@ -17603,7 +17603,7 @@
         <v>0</v>
       </c>
       <c r="Q321">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="322" spans="1:18">
@@ -17650,7 +17650,7 @@
         <v>0</v>
       </c>
       <c r="Q322">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="323" spans="1:18">
@@ -17700,7 +17700,7 @@
         <v>1</v>
       </c>
       <c r="Q323">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R323">
         <v>14</v>
@@ -17750,7 +17750,7 @@
         <v>0</v>
       </c>
       <c r="Q324">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="325" spans="1:18">
@@ -17797,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="Q325">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="326" spans="1:18">
@@ -17847,7 +17847,7 @@
         <v>1</v>
       </c>
       <c r="Q326">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="R326">
         <v>21</v>
@@ -17900,7 +17900,7 @@
         <v>1</v>
       </c>
       <c r="Q327">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="R327">
         <v>14</v>
@@ -17950,7 +17950,7 @@
         <v>0</v>
       </c>
       <c r="Q328">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="329" spans="1:18">
@@ -18000,7 +18000,7 @@
         <v>1</v>
       </c>
       <c r="Q329">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="R329">
         <v>3</v>
@@ -18053,7 +18053,7 @@
         <v>1</v>
       </c>
       <c r="Q330">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="R330">
         <v>23</v>
@@ -18106,7 +18106,7 @@
         <v>1</v>
       </c>
       <c r="Q331">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="R331">
         <v>6</v>
@@ -18156,7 +18156,7 @@
         <v>0</v>
       </c>
       <c r="Q332">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="333" spans="1:18">
@@ -18200,7 +18200,7 @@
         <v>0</v>
       </c>
       <c r="Q333">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="334" spans="1:18">
@@ -18247,7 +18247,7 @@
         <v>0</v>
       </c>
       <c r="Q334">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="335" spans="1:18">
@@ -18294,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="Q335">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="336" spans="1:18">
@@ -18344,7 +18344,7 @@
         <v>1</v>
       </c>
       <c r="Q336">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="R336">
         <v>15</v>
@@ -18394,7 +18394,7 @@
         <v>0</v>
       </c>
       <c r="Q337">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="338" spans="1:18">
@@ -18447,7 +18447,7 @@
         <v>1</v>
       </c>
       <c r="Q338">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="R338">
         <v>15</v>
@@ -18497,7 +18497,7 @@
         <v>0</v>
       </c>
       <c r="Q339">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="340" spans="1:18">
@@ -18544,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="Q340">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="341" spans="1:18">
@@ -18597,7 +18597,7 @@
         <v>1</v>
       </c>
       <c r="Q341">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="R341">
         <v>10</v>
@@ -18647,7 +18647,7 @@
         <v>0</v>
       </c>
       <c r="Q342">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="343" spans="1:18">
@@ -18697,7 +18697,7 @@
         <v>1</v>
       </c>
       <c r="Q343">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="R343">
         <v>19</v>
@@ -18750,7 +18750,7 @@
         <v>0</v>
       </c>
       <c r="Q344">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="345" spans="1:18">
@@ -18800,7 +18800,7 @@
         <v>1</v>
       </c>
       <c r="Q345">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="R345">
         <v>13</v>
@@ -18853,7 +18853,7 @@
         <v>1</v>
       </c>
       <c r="Q346">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="R346">
         <v>19</v>
@@ -18906,7 +18906,7 @@
         <v>0</v>
       </c>
       <c r="Q347">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="348" spans="1:18">
@@ -18956,7 +18956,7 @@
         <v>1</v>
       </c>
       <c r="Q348">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="R348">
         <v>13</v>
@@ -19006,7 +19006,7 @@
         <v>0</v>
       </c>
       <c r="Q349">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="350" spans="1:18">
@@ -19050,7 +19050,7 @@
         <v>0</v>
       </c>
       <c r="Q350">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="351" spans="1:18">
@@ -19100,7 +19100,7 @@
         <v>1</v>
       </c>
       <c r="Q351">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="R351">
         <v>9</v>
@@ -19150,7 +19150,7 @@
         <v>0</v>
       </c>
       <c r="Q352">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="353" spans="1:18">
@@ -19200,7 +19200,7 @@
         <v>1</v>
       </c>
       <c r="Q353">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="R353">
         <v>20</v>
@@ -19244,10 +19244,10 @@
         <v>1</v>
       </c>
       <c r="P354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q354">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="355" spans="1:18">
@@ -19288,10 +19288,10 @@
         <v>1</v>
       </c>
       <c r="P355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q355">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="356" spans="1:18">
@@ -19341,7 +19341,7 @@
         <v>1</v>
       </c>
       <c r="Q356">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="R356">
         <v>11</v>
@@ -19394,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="Q357">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="R357">
         <v>7</v>
@@ -19444,7 +19444,7 @@
         <v>0</v>
       </c>
       <c r="Q358">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="359" spans="1:18">
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="Q359">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="360" spans="1:18">
@@ -19538,7 +19538,7 @@
         <v>0</v>
       </c>
       <c r="Q360">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="361" spans="1:18">
@@ -19588,7 +19588,7 @@
         <v>1</v>
       </c>
       <c r="Q361">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="R361">
         <v>24</v>
@@ -19638,7 +19638,7 @@
         <v>0</v>
       </c>
       <c r="Q362">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="363" spans="1:18">
@@ -19688,7 +19688,7 @@
         <v>0</v>
       </c>
       <c r="Q363">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="364" spans="1:18">
@@ -19738,7 +19738,7 @@
         <v>1</v>
       </c>
       <c r="Q364">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="R364">
         <v>15</v>
@@ -19788,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="Q365">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="366" spans="1:18">
@@ -19835,7 +19835,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="367" spans="1:18">
@@ -19882,7 +19882,7 @@
         <v>0</v>
       </c>
       <c r="Q367">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="368" spans="1:18">
@@ -19929,7 +19929,7 @@
         <v>0</v>
       </c>
       <c r="Q368">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="369" spans="1:18">
@@ -19979,7 +19979,7 @@
         <v>0</v>
       </c>
       <c r="Q369">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="370" spans="1:18">
@@ -20029,7 +20029,7 @@
         <v>1</v>
       </c>
       <c r="Q370">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="R370">
         <v>27</v>
@@ -20079,7 +20079,7 @@
         <v>0</v>
       </c>
       <c r="Q371">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="372" spans="1:18">
@@ -20126,7 +20126,7 @@
         <v>0</v>
       </c>
       <c r="Q372">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="373" spans="1:18">
@@ -20176,7 +20176,7 @@
         <v>1</v>
       </c>
       <c r="Q373">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="R373">
         <v>24</v>
@@ -20229,7 +20229,7 @@
         <v>0</v>
       </c>
       <c r="Q374">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="375" spans="1:18">
@@ -20279,7 +20279,7 @@
         <v>1</v>
       </c>
       <c r="Q375">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="R375">
         <v>6</v>
@@ -20329,7 +20329,7 @@
         <v>0</v>
       </c>
       <c r="Q376">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="377" spans="1:18">
@@ -20376,7 +20376,7 @@
         <v>0</v>
       </c>
       <c r="Q377">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="378" spans="1:18">
@@ -20423,7 +20423,7 @@
         <v>0</v>
       </c>
       <c r="Q378">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="379" spans="1:18">
@@ -20473,7 +20473,7 @@
         <v>1</v>
       </c>
       <c r="Q379">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="R379">
         <v>25</v>
@@ -20526,7 +20526,7 @@
         <v>0</v>
       </c>
       <c r="Q380">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="381" spans="1:18">
@@ -20576,7 +20576,7 @@
         <v>1</v>
       </c>
       <c r="Q381">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="R381">
         <v>13</v>
@@ -20629,7 +20629,7 @@
         <v>0</v>
       </c>
       <c r="Q382">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="383" spans="1:18">
@@ -20679,7 +20679,7 @@
         <v>1</v>
       </c>
       <c r="Q383">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="R383">
         <v>11</v>
@@ -20732,7 +20732,7 @@
         <v>0</v>
       </c>
       <c r="Q384">
-        <v>142</v>
+        <v>135</v>
       </c>
     </row>
     <row r="385" spans="1:18">
@@ -20782,7 +20782,7 @@
         <v>1</v>
       </c>
       <c r="Q385">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="R385">
         <v>26</v>
@@ -20835,7 +20835,7 @@
         <v>0</v>
       </c>
       <c r="Q386">
-        <v>143</v>
+        <v>136</v>
       </c>
     </row>
     <row r="387" spans="1:18">
@@ -20885,7 +20885,7 @@
         <v>1</v>
       </c>
       <c r="Q387">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="R387">
         <v>19</v>
@@ -20935,7 +20935,7 @@
         <v>0</v>
       </c>
       <c r="Q388">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="389" spans="1:18">
@@ -20985,7 +20985,7 @@
         <v>0</v>
       </c>
       <c r="Q389">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="390" spans="1:18">
@@ -21032,7 +21032,7 @@
         <v>0</v>
       </c>
       <c r="Q390">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="391" spans="1:18">
@@ -21082,7 +21082,7 @@
         <v>0</v>
       </c>
       <c r="Q391">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="392" spans="1:18">
@@ -21129,7 +21129,7 @@
         <v>0</v>
       </c>
       <c r="Q392">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="393" spans="1:18">
@@ -21179,7 +21179,7 @@
         <v>0</v>
       </c>
       <c r="Q393">
-        <v>144</v>
+        <v>137</v>
       </c>
     </row>
     <row r="394" spans="1:18">
@@ -21229,7 +21229,7 @@
         <v>1</v>
       </c>
       <c r="Q394">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="R394">
         <v>27</v>
@@ -21279,7 +21279,7 @@
         <v>0</v>
       </c>
       <c r="Q395">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="396" spans="1:18">
@@ -21326,7 +21326,7 @@
         <v>0</v>
       </c>
       <c r="Q396">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="397" spans="1:18">
@@ -21376,7 +21376,7 @@
         <v>1</v>
       </c>
       <c r="Q397">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="R397">
         <v>24</v>
@@ -21429,7 +21429,7 @@
         <v>0</v>
       </c>
       <c r="Q398">
-        <v>146</v>
+        <v>139</v>
       </c>
     </row>
     <row r="399" spans="1:18">
@@ -21479,7 +21479,7 @@
         <v>1</v>
       </c>
       <c r="Q399">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="R399">
         <v>8</v>
@@ -21529,7 +21529,7 @@
         <v>0</v>
       </c>
       <c r="Q400">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="401" spans="1:18">
@@ -21576,7 +21576,7 @@
         <v>0</v>
       </c>
       <c r="Q401">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="402" spans="1:18">
@@ -21623,7 +21623,7 @@
         <v>0</v>
       </c>
       <c r="Q402">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="403" spans="1:18">
@@ -21670,7 +21670,7 @@
         <v>0</v>
       </c>
       <c r="Q403">
-        <v>147</v>
+        <v>140</v>
       </c>
     </row>
     <row r="404" spans="1:18">
@@ -21717,7 +21717,7 @@
         <v>1</v>
       </c>
       <c r="Q404">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="R404">
         <v>29</v>
@@ -21770,7 +21770,7 @@
         <v>1</v>
       </c>
       <c r="Q405">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="R405">
         <v>14</v>
@@ -21820,7 +21820,7 @@
         <v>0</v>
       </c>
       <c r="Q406">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="407" spans="1:18">
@@ -21864,7 +21864,7 @@
         <v>0</v>
       </c>
       <c r="Q407">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="408" spans="1:18">
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="Q408">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="409" spans="1:18">
@@ -21958,7 +21958,7 @@
         <v>0</v>
       </c>
       <c r="Q409">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="410" spans="1:18">
@@ -22005,7 +22005,7 @@
         <v>0</v>
       </c>
       <c r="Q410">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="411" spans="1:18">
@@ -22052,7 +22052,7 @@
         <v>0</v>
       </c>
       <c r="Q411">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="412" spans="1:18">
@@ -22099,7 +22099,7 @@
         <v>0</v>
       </c>
       <c r="Q412">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="413" spans="1:18">
@@ -22146,7 +22146,7 @@
         <v>0</v>
       </c>
       <c r="Q413">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="414" spans="1:18">
@@ -22196,7 +22196,7 @@
         <v>1</v>
       </c>
       <c r="Q414">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="R414">
         <v>23</v>
@@ -22246,7 +22246,7 @@
         <v>0</v>
       </c>
       <c r="Q415">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="416" spans="1:18">
@@ -22293,7 +22293,7 @@
         <v>0</v>
       </c>
       <c r="Q416">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="417" spans="1:18">
@@ -22343,7 +22343,7 @@
         <v>0</v>
       </c>
       <c r="Q417">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="418" spans="1:18">
@@ -22390,7 +22390,7 @@
         <v>0</v>
       </c>
       <c r="Q418">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="419" spans="1:18">
@@ -22440,7 +22440,7 @@
         <v>0</v>
       </c>
       <c r="Q419">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="420" spans="1:18">
@@ -22490,7 +22490,7 @@
         <v>1</v>
       </c>
       <c r="Q420">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="R420">
         <v>24</v>
@@ -22543,7 +22543,7 @@
         <v>1</v>
       </c>
       <c r="Q421">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="R421">
         <v>13</v>
@@ -22593,7 +22593,7 @@
         <v>0</v>
       </c>
       <c r="Q422">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="423" spans="1:18">
@@ -22643,7 +22643,7 @@
         <v>1</v>
       </c>
       <c r="Q423">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="R423">
         <v>5</v>
@@ -22693,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="Q424">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="425" spans="1:18">
@@ -22740,7 +22740,7 @@
         <v>0</v>
       </c>
       <c r="Q425">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="426" spans="1:18">
@@ -22787,7 +22787,7 @@
         <v>0</v>
       </c>
       <c r="Q426">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="427" spans="1:18">
@@ -22834,7 +22834,7 @@
         <v>0</v>
       </c>
       <c r="Q427">
-        <v>153</v>
+        <v>146</v>
       </c>
     </row>
     <row r="428" spans="1:18">
@@ -22884,7 +22884,7 @@
         <v>1</v>
       </c>
       <c r="Q428">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="R428">
         <v>12</v>
@@ -22934,7 +22934,7 @@
         <v>0</v>
       </c>
       <c r="Q429">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="430" spans="1:18">
@@ -22981,7 +22981,7 @@
         <v>0</v>
       </c>
       <c r="Q430">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="431" spans="1:18">
@@ -23028,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="Q431">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="432" spans="1:18">
@@ -23075,7 +23075,7 @@
         <v>0</v>
       </c>
       <c r="Q432">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="433" spans="1:18">
@@ -23122,7 +23122,7 @@
         <v>0</v>
       </c>
       <c r="Q433">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="434" spans="1:18">
@@ -23172,7 +23172,7 @@
         <v>1</v>
       </c>
       <c r="Q434">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="R434">
         <v>13</v>
@@ -23222,7 +23222,7 @@
         <v>0</v>
       </c>
       <c r="Q435">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="436" spans="1:18">
@@ -23269,7 +23269,7 @@
         <v>0</v>
       </c>
       <c r="Q436">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="437" spans="1:18">
@@ -23316,7 +23316,7 @@
         <v>0</v>
       </c>
       <c r="Q437">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="438" spans="1:18">
@@ -23369,7 +23369,7 @@
         <v>1</v>
       </c>
       <c r="Q438">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="R438">
         <v>4</v>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="Q439">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="440" spans="1:18">
@@ -23469,7 +23469,7 @@
         <v>1</v>
       </c>
       <c r="Q440">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="R440">
         <v>11</v>
@@ -23519,7 +23519,7 @@
         <v>0</v>
       </c>
       <c r="Q441">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="442" spans="1:18">
@@ -23569,7 +23569,7 @@
         <v>1</v>
       </c>
       <c r="Q442">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="R442">
         <v>16</v>
@@ -23619,7 +23619,7 @@
         <v>0</v>
       </c>
       <c r="Q443">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="444" spans="1:18">
@@ -23666,7 +23666,7 @@
         <v>0</v>
       </c>
       <c r="Q444">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="445" spans="1:18">
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="Q445">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="446" spans="1:18">
@@ -23760,7 +23760,7 @@
         <v>0</v>
       </c>
       <c r="Q446">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="447" spans="1:18">
@@ -23810,7 +23810,7 @@
         <v>1</v>
       </c>
       <c r="Q447">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="R447">
         <v>12</v>
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="Q448">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="449" spans="1:18">
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="Q449">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="450" spans="1:18">
@@ -23957,7 +23957,7 @@
         <v>1</v>
       </c>
       <c r="Q450">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="R450">
         <v>22</v>
@@ -24010,7 +24010,7 @@
         <v>0</v>
       </c>
       <c r="Q451">
-        <v>160</v>
+        <v>153</v>
       </c>
     </row>
     <row r="452" spans="1:18">
@@ -24060,7 +24060,7 @@
         <v>1</v>
       </c>
       <c r="Q452">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="R452">
         <v>11</v>
@@ -24113,7 +24113,7 @@
         <v>1</v>
       </c>
       <c r="Q453">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="R453">
         <v>25</v>
@@ -24166,7 +24166,7 @@
         <v>0</v>
       </c>
       <c r="Q454">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="455" spans="1:18">
@@ -24213,7 +24213,7 @@
         <v>0</v>
       </c>
       <c r="Q455">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="456" spans="1:18">
@@ -24260,7 +24260,7 @@
         <v>0</v>
       </c>
       <c r="Q456">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="457" spans="1:18">
@@ -24307,7 +24307,7 @@
         <v>0</v>
       </c>
       <c r="Q457">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="458" spans="1:18">
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="Q458">
-        <v>162</v>
+        <v>155</v>
       </c>
     </row>
     <row r="459" spans="1:18">
@@ -24407,7 +24407,7 @@
         <v>1</v>
       </c>
       <c r="Q459">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="R459">
         <v>21</v>
@@ -24460,7 +24460,7 @@
         <v>1</v>
       </c>
       <c r="Q460">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="R460">
         <v>10</v>
@@ -24510,7 +24510,7 @@
         <v>0</v>
       </c>
       <c r="Q461">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="462" spans="1:18">
@@ -24563,7 +24563,7 @@
         <v>1</v>
       </c>
       <c r="Q462">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="R462">
         <v>4</v>
@@ -24613,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="Q463">
-        <v>165</v>
+        <v>158</v>
       </c>
     </row>
     <row r="464" spans="1:18">
@@ -24663,7 +24663,7 @@
         <v>1</v>
       </c>
       <c r="Q464">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="R464">
         <v>3</v>
@@ -24716,7 +24716,7 @@
         <v>1</v>
       </c>
       <c r="Q465">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="R465">
         <v>17</v>
@@ -24766,7 +24766,7 @@
         <v>0</v>
       </c>
       <c r="Q466">
-        <v>167</v>
+        <v>160</v>
       </c>
     </row>
     <row r="467" spans="1:18">
@@ -24816,7 +24816,7 @@
         <v>1</v>
       </c>
       <c r="Q467">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="R467">
         <v>3</v>
@@ -24866,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="Q468">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="469" spans="1:18">
@@ -24913,7 +24913,7 @@
         <v>0</v>
       </c>
       <c r="Q469">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="470" spans="1:18">
@@ -24960,7 +24960,7 @@
         <v>0</v>
       </c>
       <c r="Q470">
-        <v>168</v>
+        <v>161</v>
       </c>
     </row>
     <row r="471" spans="1:18">
@@ -25010,7 +25010,7 @@
         <v>1</v>
       </c>
       <c r="Q471">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="R471">
         <v>22</v>
@@ -25057,7 +25057,7 @@
         <v>0</v>
       </c>
       <c r="Q472">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="473" spans="1:18">
@@ -25104,7 +25104,7 @@
         <v>0</v>
       </c>
       <c r="Q473">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="474" spans="1:18">
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="Q474">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="475" spans="1:18">
@@ -25198,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q475">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="476" spans="1:18">
@@ -25245,7 +25245,7 @@
         <v>0</v>
       </c>
       <c r="Q476">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="477" spans="1:18">
@@ -25292,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="Q477">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="478" spans="1:18">
@@ -25339,7 +25339,7 @@
         <v>0</v>
       </c>
       <c r="Q478">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="479" spans="1:18">
@@ -25386,7 +25386,7 @@
         <v>0</v>
       </c>
       <c r="Q479">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="480" spans="1:18">
@@ -25433,7 +25433,7 @@
         <v>0</v>
       </c>
       <c r="Q480">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="481" spans="1:18">
@@ -25480,7 +25480,7 @@
         <v>0</v>
       </c>
       <c r="Q481">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="482" spans="1:18">
@@ -25527,7 +25527,7 @@
         <v>0</v>
       </c>
       <c r="Q482">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="483" spans="1:18">
@@ -25574,7 +25574,7 @@
         <v>0</v>
       </c>
       <c r="Q483">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="484" spans="1:18">
@@ -25621,7 +25621,7 @@
         <v>0</v>
       </c>
       <c r="Q484">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="485" spans="1:18">
@@ -25668,7 +25668,7 @@
         <v>0</v>
       </c>
       <c r="Q485">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="486" spans="1:18">
@@ -25718,7 +25718,7 @@
         <v>1</v>
       </c>
       <c r="Q486">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="R486">
         <v>4</v>
@@ -25765,7 +25765,7 @@
         <v>0</v>
       </c>
       <c r="Q487">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="488" spans="1:18">
@@ -25812,7 +25812,7 @@
         <v>0</v>
       </c>
       <c r="Q488">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="489" spans="1:18">
@@ -25859,7 +25859,7 @@
         <v>0</v>
       </c>
       <c r="Q489">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="490" spans="1:18">
@@ -25906,7 +25906,7 @@
         <v>0</v>
       </c>
       <c r="Q490">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="491" spans="1:18">
@@ -25953,7 +25953,7 @@
         <v>0</v>
       </c>
       <c r="Q491">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="492" spans="1:18">
@@ -26000,7 +26000,7 @@
         <v>0</v>
       </c>
       <c r="Q492">
-        <v>170</v>
+        <v>163</v>
       </c>
     </row>
     <row r="493" spans="1:18">
@@ -26050,7 +26050,7 @@
         <v>1</v>
       </c>
       <c r="Q493">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="R493">
         <v>2</v>
@@ -26100,7 +26100,7 @@
         <v>0</v>
       </c>
       <c r="Q494">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="495" spans="1:18">
@@ -26147,7 +26147,7 @@
         <v>0</v>
       </c>
       <c r="Q495">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="496" spans="1:18">
@@ -26194,7 +26194,7 @@
         <v>0</v>
       </c>
       <c r="Q496">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="497" spans="1:18">
@@ -26241,7 +26241,7 @@
         <v>0</v>
       </c>
       <c r="Q497">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="498" spans="1:18">
@@ -26288,7 +26288,7 @@
         <v>0</v>
       </c>
       <c r="Q498">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="499" spans="1:18">
@@ -26335,7 +26335,7 @@
         <v>0</v>
       </c>
       <c r="Q499">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="500" spans="1:18">
@@ -26382,7 +26382,7 @@
         <v>0</v>
       </c>
       <c r="Q500">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="501" spans="1:18">
@@ -26432,7 +26432,7 @@
         <v>1</v>
       </c>
       <c r="Q501">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="R501">
         <v>4</v>
@@ -26485,7 +26485,7 @@
         <v>1</v>
       </c>
       <c r="Q502">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="R502">
         <v>4</v>
@@ -26535,7 +26535,7 @@
         <v>0</v>
       </c>
       <c r="Q503">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="504" spans="1:18">
@@ -26582,7 +26582,7 @@
         <v>0</v>
       </c>
       <c r="Q504">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="505" spans="1:18">
@@ -26629,7 +26629,7 @@
         <v>0</v>
       </c>
       <c r="Q505">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="506" spans="1:18">
@@ -26676,7 +26676,7 @@
         <v>0</v>
       </c>
       <c r="Q506">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="507" spans="1:18">
@@ -26723,7 +26723,7 @@
         <v>0</v>
       </c>
       <c r="Q507">
-        <v>173</v>
+        <v>166</v>
       </c>
     </row>
     <row r="508" spans="1:18">
@@ -26773,7 +26773,7 @@
         <v>1</v>
       </c>
       <c r="Q508">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="R508">
         <v>1</v>
@@ -26826,7 +26826,7 @@
         <v>0</v>
       </c>
       <c r="Q509">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="510" spans="1:18">
@@ -26873,7 +26873,7 @@
         <v>0</v>
       </c>
       <c r="Q510">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="511" spans="1:18">
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="Q511">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="512" spans="1:18">
@@ -26967,7 +26967,7 @@
         <v>0</v>
       </c>
       <c r="Q512">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="513" spans="1:18">
@@ -27017,7 +27017,7 @@
         <v>1</v>
       </c>
       <c r="Q513">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="R513">
         <v>1</v>
@@ -27070,7 +27070,7 @@
         <v>1</v>
       </c>
       <c r="Q514">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="R514">
         <v>0</v>
@@ -27114,10 +27114,10 @@
         <v>1</v>
       </c>
       <c r="P515" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q515">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="516" spans="1:18">
@@ -27158,7 +27158,7 @@
         <v>0</v>
       </c>
       <c r="Q516">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
